--- a/data/trans_orig/P2A_senso_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20652</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12453</v>
+        <v>12666</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32264</v>
+        <v>31779</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03535517365608311</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02131788262597495</v>
+        <v>0.02168253493839109</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0552326417130569</v>
+        <v>0.0544037603414318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -765,19 +765,19 @@
         <v>28584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18754</v>
+        <v>18839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41333</v>
+        <v>41365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03099112138992169</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02033321137664605</v>
+        <v>0.02042544620174579</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04481302072984927</v>
+        <v>0.04484793524547824</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -786,19 +786,19 @@
         <v>49237</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36861</v>
+        <v>35758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65465</v>
+        <v>63645</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03268329975949123</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02446865140729277</v>
+        <v>0.02373653350820651</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04345588273372844</v>
+        <v>0.04224748645459638</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>563489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>551877</v>
+        <v>552362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>571688</v>
+        <v>571475</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9646448263439169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9447673582869436</v>
+        <v>0.9455962396585681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9786821173740251</v>
+        <v>0.9783174650616088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>858</v>
@@ -836,19 +836,19 @@
         <v>893749</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>881000</v>
+        <v>880968</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>903579</v>
+        <v>903494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9690088786100783</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9551869792701508</v>
+        <v>0.9551520647545219</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9796667886233539</v>
+        <v>0.9795745537982542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1412</v>
@@ -857,19 +857,19 @@
         <v>1457237</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1441009</v>
+        <v>1442829</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1469613</v>
+        <v>1470716</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9673167002405088</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9565441172662714</v>
+        <v>0.9577525135454036</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9755313485927071</v>
+        <v>0.9762634664917934</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6395</v>
+        <v>6576</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20820</v>
+        <v>21236</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01133207516876803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005932981927357479</v>
+        <v>0.006101098240643961</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01931520027323679</v>
+        <v>0.01970181813524137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -982,19 +982,19 @@
         <v>11664</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6186</v>
+        <v>6249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19607</v>
+        <v>21006</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01102910020032635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005849889784567099</v>
+        <v>0.005908542571629455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01854033022393505</v>
+        <v>0.01986272358172858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1003,19 +1003,19 @@
         <v>23878</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15181</v>
+        <v>15038</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34340</v>
+        <v>34399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.011182031740661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007109153000211606</v>
+        <v>0.007042307877294585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01608128713278649</v>
+        <v>0.0161086103585888</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1065679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1057074</v>
+        <v>1056658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1071499</v>
+        <v>1071318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.988667924831232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9806847997267623</v>
+        <v>0.9802981818647587</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.994067018072642</v>
+        <v>0.9938989017593561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1017</v>
@@ -1053,19 +1053,19 @@
         <v>1045874</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1037931</v>
+        <v>1036532</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1051352</v>
+        <v>1051289</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9889708997996737</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9814596697760648</v>
+        <v>0.9801372764182711</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9941501102154329</v>
+        <v>0.9940914574283704</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2060</v>
@@ -1074,19 +1074,19 @@
         <v>2111554</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2101092</v>
+        <v>2101033</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2120251</v>
+        <v>2120394</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.988817968259339</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9839187128672132</v>
+        <v>0.9838913896414109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9928908469997882</v>
+        <v>0.9929576921227053</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7508</v>
+        <v>7495</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22696</v>
+        <v>21909</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0119899223634017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006693891250230062</v>
+        <v>0.006682332926683424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02023512160227534</v>
+        <v>0.01953370957248235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>7965</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3676</v>
+        <v>3806</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15613</v>
+        <v>15863</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008013852548402004</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003698415354001582</v>
+        <v>0.003828745089111482</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0157079383758812</v>
+        <v>0.01596018741513214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1220,19 +1220,19 @@
         <v>21413</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13194</v>
+        <v>13840</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31511</v>
+        <v>32447</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01012184863652111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006236493960542471</v>
+        <v>0.006541918520416342</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01489515625946773</v>
+        <v>0.01533751981093675</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1108146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1098898</v>
+        <v>1099685</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1114086</v>
+        <v>1114099</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9880100776365983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9797648783977253</v>
+        <v>0.9804662904275172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9933061087497701</v>
+        <v>0.9933176670733165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>974</v>
@@ -1270,19 +1270,19 @@
         <v>985975</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>978327</v>
+        <v>978077</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>990264</v>
+        <v>990134</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.991986147451598</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9842920616241189</v>
+        <v>0.9840398125848679</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963015846459985</v>
+        <v>0.9961712549108885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2063</v>
@@ -1291,19 +1291,19 @@
         <v>2094121</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2084023</v>
+        <v>2083087</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2102340</v>
+        <v>2101694</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9898781513634789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9851048437405323</v>
+        <v>0.9846624801890627</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9937635060394576</v>
+        <v>0.9934580814795834</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10329</v>
+        <v>9857</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007895695579065651</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002047437348733041</v>
+        <v>0.002099133597203828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02309606943380064</v>
+        <v>0.02204170776970513</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>5037</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1866</v>
+        <v>1192</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10464</v>
+        <v>11891</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01476534098892142</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005470440143348652</v>
+        <v>0.003493306472242231</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03067296308562012</v>
+        <v>0.03485553337854102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1437,19 +1437,19 @@
         <v>8568</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3542</v>
+        <v>3852</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16626</v>
+        <v>16033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01086850248947802</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004493211022010917</v>
+        <v>0.004886283587003974</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0210891651660205</v>
+        <v>0.02033671552460631</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>443669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436871</v>
+        <v>437343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>446284</v>
+        <v>446261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921043044209343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9769039305661993</v>
+        <v>0.9779582922302953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.997952562651267</v>
+        <v>0.9979008664027962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -1487,19 +1487,19 @@
         <v>336121</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>330694</v>
+        <v>329267</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339292</v>
+        <v>339966</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9852346590110785</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9693270369143795</v>
+        <v>0.9651444666214593</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9945295598566513</v>
+        <v>0.9965066935277578</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>767</v>
@@ -1508,19 +1508,19 @@
         <v>779790</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>771732</v>
+        <v>772325</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>784816</v>
+        <v>784506</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.989131497510522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9789108348339793</v>
+        <v>0.9796632844753936</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9955067889779889</v>
+        <v>0.995113716412996</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>49846</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38010</v>
+        <v>36910</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66878</v>
+        <v>66103</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01542822991387093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01176478587838186</v>
+        <v>0.01142416752916869</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0206999254542419</v>
+        <v>0.02046002022656595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -1633,19 +1633,19 @@
         <v>53250</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39822</v>
+        <v>40925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68460</v>
+        <v>69385</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01606362957349601</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01201270550641106</v>
+        <v>0.01234557772910346</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0206518774892903</v>
+        <v>0.02093075837824259</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -1654,19 +1654,19 @@
         <v>103096</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83456</v>
+        <v>84134</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122897</v>
+        <v>124406</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01575001344935872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0127495602169537</v>
+        <v>0.0128531198771057</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01877496797431365</v>
+        <v>0.01900550902842857</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3180983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3163951</v>
+        <v>3164726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3192819</v>
+        <v>3193919</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9845717700861291</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9793000745457581</v>
+        <v>0.9795399797734341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9882352141216181</v>
+        <v>0.9885758324708314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3183</v>
@@ -1704,19 +1704,19 @@
         <v>3261719</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3246509</v>
+        <v>3245584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3275147</v>
+        <v>3274044</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9839363704265039</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9793481225107097</v>
+        <v>0.9790692416217575</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9879872944935891</v>
+        <v>0.9876544222708965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6302</v>
@@ -1725,19 +1725,19 @@
         <v>6442702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6422901</v>
+        <v>6421392</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6462342</v>
+        <v>6461664</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9842499865506413</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9812250320256863</v>
+        <v>0.9809944909715714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9872504397830463</v>
+        <v>0.9871468801228941</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>17603</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11114</v>
+        <v>10532</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28463</v>
+        <v>27596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01686200834110139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01064615429558622</v>
+        <v>0.01008865558778236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02726526126770263</v>
+        <v>0.02643420011430869</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2090,19 +2090,19 @@
         <v>28888</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19419</v>
+        <v>19442</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40627</v>
+        <v>41015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02579435162761839</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01733938340705695</v>
+        <v>0.01736045249291668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03627681617396872</v>
+        <v>0.03662292430080151</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -2111,19 +2111,19 @@
         <v>46491</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34547</v>
+        <v>33522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62163</v>
+        <v>61438</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02148502921820921</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01596539331938148</v>
+        <v>0.01549185002894437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0287278879494625</v>
+        <v>0.02839257760622181</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1026332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1015472</v>
+        <v>1016339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1032821</v>
+        <v>1033403</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9831379916588986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9727347387322972</v>
+        <v>0.9735657998856915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9893538457044136</v>
+        <v>0.9899113444122176</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1005</v>
@@ -2161,19 +2161,19 @@
         <v>1091040</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1079301</v>
+        <v>1078913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1100509</v>
+        <v>1100486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9742056483723815</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9637231838260313</v>
+        <v>0.9633770756991986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.982660616592943</v>
+        <v>0.9826395475070834</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1966</v>
@@ -2182,19 +2182,19 @@
         <v>2117372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2101700</v>
+        <v>2102425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2129316</v>
+        <v>2130341</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9785149707817908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9712721120505374</v>
+        <v>0.9716074223937783</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9840346066806185</v>
+        <v>0.9845081499710556</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>23420</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13848</v>
+        <v>15975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35713</v>
+        <v>36487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02396981856735395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01417318291633342</v>
+        <v>0.01634988500108663</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03655121565762156</v>
+        <v>0.03734342556648227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -2307,19 +2307,19 @@
         <v>21417</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12831</v>
+        <v>13003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31966</v>
+        <v>32818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0195723436104008</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01172612020289132</v>
+        <v>0.01188255386709448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02921213791015987</v>
+        <v>0.02999080828905824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -2328,19 +2328,19 @@
         <v>44838</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32787</v>
+        <v>31740</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62017</v>
+        <v>59792</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0216466836975326</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01582878976707427</v>
+        <v>0.0153232374391285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02994068372791523</v>
+        <v>0.02886616640427377</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>953653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>941360</v>
+        <v>940586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>963225</v>
+        <v>961098</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9760301814326461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9634487843423786</v>
+        <v>0.9626565744335177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9858268170836672</v>
+        <v>0.9836501149989133</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1000</v>
@@ -2378,19 +2378,19 @@
         <v>1072845</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1062296</v>
+        <v>1061444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1081431</v>
+        <v>1081259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9804276563895992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9707878620898405</v>
+        <v>0.9700091917109417</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9882738797971088</v>
+        <v>0.9881174461329054</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1903</v>
@@ -2399,19 +2399,19 @@
         <v>2026497</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2009318</v>
+        <v>2011543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2038548</v>
+        <v>2039595</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9783533163024674</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9700593162720847</v>
+        <v>0.9711338335957262</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9841712102329258</v>
+        <v>0.9846767625608716</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>13811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6730</v>
+        <v>6688</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25266</v>
+        <v>24639</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01560399935412846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007602976161994453</v>
+        <v>0.007555730694975418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02854583994350864</v>
+        <v>0.02783758669642617</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2524,19 +2524,19 @@
         <v>19185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11162</v>
+        <v>11709</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30217</v>
+        <v>28931</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02190559718723722</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01274524113666719</v>
+        <v>0.01336962147459994</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03450250355066745</v>
+        <v>0.03303392398557116</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -2545,19 +2545,19 @@
         <v>32996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23183</v>
+        <v>21904</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47396</v>
+        <v>47796</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01873812319488904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01316529600432657</v>
+        <v>0.01243923073094276</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0269157807441858</v>
+        <v>0.02714300876992272</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>871304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>859849</v>
+        <v>860476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>878385</v>
+        <v>878427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9843960006458715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9714541600564914</v>
+        <v>0.9721624133035731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9923970238380055</v>
+        <v>0.9924442693050245</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>803</v>
@@ -2595,19 +2595,19 @@
         <v>856611</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>845579</v>
+        <v>846865</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>864634</v>
+        <v>864087</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9780944028127627</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9654974964493325</v>
+        <v>0.9669660760144286</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9872547588633327</v>
+        <v>0.9866303785254</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1622</v>
@@ -2616,19 +2616,19 @@
         <v>1727915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1713515</v>
+        <v>1713115</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1737728</v>
+        <v>1739007</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.981261876805111</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9730842192558143</v>
+        <v>0.9728569912300771</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9868347039956735</v>
+        <v>0.9875607692690557</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>2857</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7768</v>
+        <v>8021</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00568057178664274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001646067776561209</v>
+        <v>0.001658276987450804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01544247184243501</v>
+        <v>0.01594468207867886</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -2741,19 +2741,19 @@
         <v>7478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15259</v>
+        <v>16143</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01651773106778674</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006410851802567237</v>
+        <v>0.006412445305137007</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03370410884955272</v>
+        <v>0.03565688735608443</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -2762,19 +2762,19 @@
         <v>10336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4750</v>
+        <v>4716</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19690</v>
+        <v>19623</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01081405366525925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004970007504227089</v>
+        <v>0.00493465907847871</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02060099086587484</v>
+        <v>0.02053162491719189</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>500166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495255</v>
+        <v>495002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>502195</v>
+        <v>502189</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9943194282133573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9845575281575649</v>
+        <v>0.9840553179213211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983539322234388</v>
+        <v>0.9983417230125492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>406</v>
@@ -2812,19 +2812,19 @@
         <v>445258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>437477</v>
+        <v>436593</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>449834</v>
+        <v>449833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9834822689322132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9662958911504472</v>
+        <v>0.9643431126439166</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9935891481974327</v>
+        <v>0.9935875546948632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>864</v>
@@ -2833,19 +2833,19 @@
         <v>945422</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>936068</v>
+        <v>936135</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>951008</v>
+        <v>951042</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9891859463347408</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9793990091341253</v>
+        <v>0.9794683750828082</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.995029992495773</v>
+        <v>0.9950653409215213</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>57692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43747</v>
+        <v>43007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77723</v>
+        <v>74464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01692268368497173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0128322372157872</v>
+        <v>0.0126151948695225</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0227982998918834</v>
+        <v>0.02184229381372768</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -2958,19 +2958,19 @@
         <v>76968</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61010</v>
+        <v>60901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96208</v>
+        <v>96405</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02172569491179315</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01722130458595971</v>
+        <v>0.01719036718383581</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02715661671847725</v>
+        <v>0.02721204856293145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -2979,19 +2979,19 @@
         <v>134660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112377</v>
+        <v>111466</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162894</v>
+        <v>158207</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01937033299094371</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01616495271606551</v>
+        <v>0.01603391061860203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02343162990581672</v>
+        <v>0.02275751504224797</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3351453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3331422</v>
+        <v>3334681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3365398</v>
+        <v>3366138</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9830773163150283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9772017001081166</v>
+        <v>0.9781577061862723</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9871677627842128</v>
+        <v>0.9873848051304774</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3214</v>
@@ -3029,19 +3029,19 @@
         <v>3465754</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3446514</v>
+        <v>3446317</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3481712</v>
+        <v>3481821</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9782743050882069</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9728433832815226</v>
+        <v>0.9727879514370686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9827786954140403</v>
+        <v>0.9828096328161641</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6355</v>
@@ -3050,19 +3050,19 @@
         <v>6817207</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6788973</v>
+        <v>6793660</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6839490</v>
+        <v>6840401</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9806296670090563</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9765683700941844</v>
+        <v>0.977242484957752</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9838350472839347</v>
+        <v>0.9839660893813981</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>14987</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8345</v>
+        <v>8425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26519</v>
+        <v>26354</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01328601299851847</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007398051248336283</v>
+        <v>0.007469208186708739</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02350983018246331</v>
+        <v>0.0233631235514593</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -3415,19 +3415,19 @@
         <v>17176</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9660</v>
+        <v>10376</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27633</v>
+        <v>26998</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0136365550879522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007669126635557235</v>
+        <v>0.008237444883692697</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02193855957730862</v>
+        <v>0.02143418822313603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -3436,19 +3436,19 @@
         <v>32163</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21441</v>
+        <v>21586</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47229</v>
+        <v>46751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01347094214538841</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008980413144548642</v>
+        <v>0.009041108842225915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01978110861955886</v>
+        <v>0.01958100355329742</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1113010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1101478</v>
+        <v>1101643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1119652</v>
+        <v>1119572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9867139870014815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9764901698175367</v>
+        <v>0.9766368764485406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9926019487516636</v>
+        <v>0.9925307918132913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1172</v>
@@ -3486,19 +3486,19 @@
         <v>1242385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1231928</v>
+        <v>1232563</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1249901</v>
+        <v>1249185</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9863634449120477</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9780614404226907</v>
+        <v>0.9785658117768641</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9923308733644428</v>
+        <v>0.9917625551163074</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2225</v>
@@ -3507,19 +3507,19 @@
         <v>2355395</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2340329</v>
+        <v>2340807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2366117</v>
+        <v>2365972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9865290578546115</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9802188913804413</v>
+        <v>0.9804189964467028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9910195868554519</v>
+        <v>0.9909588911577745</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>8649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4056</v>
+        <v>3994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17463</v>
+        <v>16545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009516865534804488</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004463016625863829</v>
+        <v>0.004394491009515246</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0192145849846357</v>
+        <v>0.01820498130961298</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3632,19 +3632,19 @@
         <v>8345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3767</v>
+        <v>3853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15564</v>
+        <v>15552</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008291398400089007</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003742836342657381</v>
+        <v>0.003828108349932129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01546398374231847</v>
+        <v>0.01545230733597952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -3653,19 +3653,19 @@
         <v>16994</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10265</v>
+        <v>9537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26980</v>
+        <v>26547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008872892084535835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005359217678499771</v>
+        <v>0.004979186541972446</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01408647398830994</v>
+        <v>0.01386048465467588</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>900176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>891362</v>
+        <v>892280</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>904769</v>
+        <v>904831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9904831344651955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9807854150153633</v>
+        <v>0.9817950186903868</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9955369833741361</v>
+        <v>0.9956055089904847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>943</v>
@@ -3703,19 +3703,19 @@
         <v>998130</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>990911</v>
+        <v>990923</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1002708</v>
+        <v>1002622</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.991708601599911</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9845360162576817</v>
+        <v>0.9845476926640206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9962571636573426</v>
+        <v>0.9961718916500679</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1816</v>
@@ -3724,19 +3724,19 @@
         <v>1898306</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1888320</v>
+        <v>1888753</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1905035</v>
+        <v>1905763</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9911271079154642</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9859135260116896</v>
+        <v>0.9861395153453235</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9946407823215</v>
+        <v>0.9950208134580274</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>6440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2181</v>
+        <v>2405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14874</v>
+        <v>15284</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007817621157401072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002648051943352428</v>
+        <v>0.002918966845016094</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01805571794142987</v>
+        <v>0.01855364444381394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3849,19 +3849,19 @@
         <v>4548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10425</v>
+        <v>10173</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005898596936193751</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002229897796282933</v>
+        <v>0.002233213327759692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01352063971881894</v>
+        <v>0.01319322736026146</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3870,19 +3870,19 @@
         <v>10988</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5487</v>
+        <v>5390</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21703</v>
+        <v>20461</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006889816025986495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00344072965797865</v>
+        <v>0.00337990219975949</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01360840675495231</v>
+        <v>0.01282989855704253</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>817319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>808885</v>
+        <v>808475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>821578</v>
+        <v>821354</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.992182378842599</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9819442820585702</v>
+        <v>0.981446355556186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9973519480566476</v>
+        <v>0.9970810331549839</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>723</v>
@@ -3920,19 +3920,19 @@
         <v>766511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>760634</v>
+        <v>760886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>769340</v>
+        <v>769337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9941014030638062</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.986479360281181</v>
+        <v>0.9868067726397385</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9977701022037171</v>
+        <v>0.9977667866722403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1505</v>
@@ -3941,19 +3941,19 @@
         <v>1583830</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1573115</v>
+        <v>1574357</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1589331</v>
+        <v>1589428</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9931101839740135</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.986391593245048</v>
+        <v>0.9871701014429577</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9965592703420214</v>
+        <v>0.9966200978002405</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>3416</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9539</v>
+        <v>9455</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006741346712610316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002109119742791222</v>
+        <v>0.002088474495868658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01882666690436968</v>
+        <v>0.01865980213983456</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -4066,19 +4066,19 @@
         <v>7652</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3098</v>
+        <v>3132</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17129</v>
+        <v>17272</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01562679896165441</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006326978481932943</v>
+        <v>0.006396170405318356</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03497810558637225</v>
+        <v>0.03527081889269567</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -4087,19 +4087,19 @@
         <v>11068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4739</v>
+        <v>5497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19571</v>
+        <v>19905</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01110825856388498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004755809369032511</v>
+        <v>0.005516813548347474</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01964163667395612</v>
+        <v>0.01997680126018801</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>503285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>497162</v>
+        <v>497246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505632</v>
+        <v>505643</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9932586532873897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9811733330956304</v>
+        <v>0.9813401978601655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9978908802572088</v>
+        <v>0.9979115255041313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>449</v>
@@ -4137,19 +4137,19 @@
         <v>482046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>472569</v>
+        <v>472426</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>486600</v>
+        <v>486566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9843732010383456</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9650218944136282</v>
+        <v>0.9647291811073048</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9936730215180671</v>
+        <v>0.9936038295946816</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>917</v>
@@ -4158,19 +4158,19 @@
         <v>985330</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>976827</v>
+        <v>976493</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>991659</v>
+        <v>990901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.988891741436115</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9803583633260439</v>
+        <v>0.980023198739812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9952441906309675</v>
+        <v>0.9944831864516525</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>33491</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23597</v>
+        <v>22733</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49465</v>
+        <v>49003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009946132031213455</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007007746495260233</v>
+        <v>0.00675107205781323</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01468991683188813</v>
+        <v>0.0145527449150328</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -4283,19 +4283,19 @@
         <v>37722</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26997</v>
+        <v>27175</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55221</v>
+        <v>51648</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0106957606913724</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007654749398595491</v>
+        <v>0.00770541568994782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0156574883511195</v>
+        <v>0.01464458002787107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -4304,19 +4304,19 @@
         <v>71213</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55105</v>
+        <v>55101</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90986</v>
+        <v>93141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01032961854378161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00799305734695945</v>
+        <v>0.007992494470321077</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01319772246007025</v>
+        <v>0.01351035078694613</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3333791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3317817</v>
+        <v>3318279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3343685</v>
+        <v>3344549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9900538679687866</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.985310083168113</v>
+        <v>0.9854472550849671</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9929922535047397</v>
+        <v>0.9932489279421864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3287</v>
@@ -4354,19 +4354,19 @@
         <v>3489070</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3471571</v>
+        <v>3475144</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3499795</v>
+        <v>3499617</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9893042393086275</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9843425116488808</v>
+        <v>0.9853554199721289</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9923452506014044</v>
+        <v>0.9922945843100521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6463</v>
@@ -4375,19 +4375,19 @@
         <v>6822862</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6803089</v>
+        <v>6800934</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6838970</v>
+        <v>6838974</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9896703814562184</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9868022775399298</v>
+        <v>0.9864896492130537</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9920069426530406</v>
+        <v>0.9920075055296786</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>17226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9675</v>
+        <v>10691</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26524</v>
+        <v>27464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03453940827739865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01939918741617908</v>
+        <v>0.02143522857280293</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05318187169373945</v>
+        <v>0.05506772670231912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -4740,19 +4740,19 @@
         <v>20214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14493</v>
+        <v>13254</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28371</v>
+        <v>27944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03241630173577981</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02324228071934208</v>
+        <v>0.02125457590587558</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04549663805159631</v>
+        <v>0.04481216720951957</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -4761,19 +4761,19 @@
         <v>37440</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27387</v>
+        <v>27599</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50133</v>
+        <v>49608</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03335977340549738</v>
+        <v>0.03335977340549739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02440256249640191</v>
+        <v>0.02459075660954512</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04466945876983604</v>
+        <v>0.04420161621481857</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>481513</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>472215</v>
+        <v>471275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489064</v>
+        <v>488048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9654605917226013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9468181283062608</v>
+        <v>0.9449322732976811</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9806008125838209</v>
+        <v>0.978564771427197</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>830</v>
@@ -4811,19 +4811,19 @@
         <v>603366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>595209</v>
+        <v>595636</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>609087</v>
+        <v>610326</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.96758369826422</v>
+        <v>0.9675836982642201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9545033619484036</v>
+        <v>0.9551878327904805</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.976757719280658</v>
+        <v>0.9787454240941241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1269</v>
@@ -4832,19 +4832,19 @@
         <v>1084880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1072187</v>
+        <v>1072712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1094933</v>
+        <v>1094721</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9666402265945027</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9553305412301641</v>
+        <v>0.9557983837851816</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9755974375035982</v>
+        <v>0.9754092433904546</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>22212</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14794</v>
+        <v>15280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32980</v>
+        <v>32409</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02313407299498372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0154079553882305</v>
+        <v>0.01591396131211142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03434968547073086</v>
+        <v>0.03375477413414255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -4957,19 +4957,19 @@
         <v>44819</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34669</v>
+        <v>35400</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56081</v>
+        <v>56290</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04016576533093213</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03106955432560488</v>
+        <v>0.03172451728117</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05025864359098506</v>
+        <v>0.0504457645445785</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -4978,19 +4978,19 @@
         <v>67031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53866</v>
+        <v>55188</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82755</v>
+        <v>82173</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03228866376077939</v>
+        <v>0.03228866376077938</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0259472557456291</v>
+        <v>0.02658405203089167</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0398627526770377</v>
+        <v>0.03958250331595585</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>937925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>927157</v>
+        <v>927728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>945343</v>
+        <v>944857</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9768659270050165</v>
+        <v>0.9768659270050162</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9656503145292692</v>
+        <v>0.9662452258658576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9845920446117695</v>
+        <v>0.9840860386878886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1535</v>
@@ -5028,19 +5028,19 @@
         <v>1071030</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1059768</v>
+        <v>1059559</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1081180</v>
+        <v>1080449</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9598342346690678</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9497413564090149</v>
+        <v>0.9495542354554214</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9689304456743952</v>
+        <v>0.9682754827188299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2419</v>
@@ -5049,19 +5049,19 @@
         <v>2008955</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1993231</v>
+        <v>1993813</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2022120</v>
+        <v>2020798</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9677113362392207</v>
+        <v>0.9677113362392206</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9601372473229624</v>
+        <v>0.9604174966840441</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9740527442543712</v>
+        <v>0.9734159479691081</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>23461</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15303</v>
+        <v>15140</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37461</v>
+        <v>37171</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02241885287066016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0146228600191506</v>
+        <v>0.01446768591547434</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03579701243068364</v>
+        <v>0.03551966099185502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -5174,19 +5174,19 @@
         <v>29043</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20428</v>
+        <v>20255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41343</v>
+        <v>44261</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02772181566293562</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01949934259636261</v>
+        <v>0.01933390566286512</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0394632536995588</v>
+        <v>0.04224786464182546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -5195,19 +5195,19 @@
         <v>52503</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38505</v>
+        <v>40505</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69331</v>
+        <v>70893</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02507180599112256</v>
+        <v>0.02507180599112257</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01838700902585392</v>
+        <v>0.01934240207397704</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03310753468827594</v>
+        <v>0.03385322631714974</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1023018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1009018</v>
+        <v>1009308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1031176</v>
+        <v>1031339</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9775811471293399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.964202987569316</v>
+        <v>0.964480339008145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985377139980849</v>
+        <v>0.9855323140845257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1478</v>
@@ -5245,19 +5245,19 @@
         <v>1018599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1006299</v>
+        <v>1003381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1027214</v>
+        <v>1027387</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9722781843370644</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9605367463004406</v>
+        <v>0.9577521353581743</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9805006574036373</v>
+        <v>0.9806660943371348</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2486</v>
@@ -5266,19 +5266,19 @@
         <v>2041618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2024790</v>
+        <v>2023228</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2055616</v>
+        <v>2053616</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9749281940088773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9668924653117239</v>
+        <v>0.96614677368285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9816129909741457</v>
+        <v>0.9806575979260227</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>22603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12857</v>
+        <v>13299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35675</v>
+        <v>35544</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02316002485918306</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0131741068074941</v>
+        <v>0.01362655569323074</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03655476165326732</v>
+        <v>0.03642031460491645</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -5391,19 +5391,19 @@
         <v>24704</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18105</v>
+        <v>17494</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33792</v>
+        <v>33258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02713726356241612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01988765871610416</v>
+        <v>0.01921642795154278</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03712031884406986</v>
+        <v>0.03653341216265848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -5412,19 +5412,19 @@
         <v>47307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36293</v>
+        <v>36218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62841</v>
+        <v>62960</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02507950155111157</v>
+        <v>0.02507950155111156</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0192407313516794</v>
+        <v>0.01920096510479126</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03331501897842095</v>
+        <v>0.03337806886459201</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>953326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>940254</v>
+        <v>940385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>963072</v>
+        <v>962630</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9768399751408169</v>
+        <v>0.976839975140817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9634452383467322</v>
+        <v>0.9635796853950835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9868258931925058</v>
+        <v>0.9863734443067692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1285</v>
@@ -5462,19 +5462,19 @@
         <v>885641</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>876553</v>
+        <v>877087</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>892240</v>
+        <v>892851</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9728627364375839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9628796811559301</v>
+        <v>0.9634665878373414</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9801123412838957</v>
+        <v>0.9807835720484571</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2211</v>
@@ -5483,19 +5483,19 @@
         <v>1838967</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1823433</v>
+        <v>1823314</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1849981</v>
+        <v>1850056</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9749204984488887</v>
+        <v>0.9749204984488883</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9666849810215792</v>
+        <v>0.966621931135408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9807592686483206</v>
+        <v>0.9807990348952087</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>85501</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67381</v>
+        <v>68781</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105231</v>
+        <v>107196</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02456031488559909</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01935533290883358</v>
+        <v>0.01975736319826038</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03022777483931656</v>
+        <v>0.03079195666256265</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>180</v>
@@ -5608,19 +5608,19 @@
         <v>118780</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100710</v>
+        <v>102558</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137385</v>
+        <v>138064</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03212511174252704</v>
+        <v>0.03212511174252705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02723784638032006</v>
+        <v>0.02773774780054446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03715706383961179</v>
+        <v>0.03734063692145551</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>264</v>
@@ -5629,19 +5629,19 @@
         <v>204281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>180429</v>
+        <v>178784</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>231729</v>
+        <v>231290</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02845659134854293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02513386487291694</v>
+        <v>0.0249047724284593</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03228005874950346</v>
+        <v>0.03221885204230279</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3395783</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3376053</v>
+        <v>3374088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3413903</v>
+        <v>3412503</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.975439685114401</v>
+        <v>0.9754396851144008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9697722251606835</v>
+        <v>0.9692080433374376</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9806446670911664</v>
+        <v>0.9802426368017397</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5128</v>
@@ -5679,19 +5679,19 @@
         <v>3578636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3560031</v>
+        <v>3559352</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3596706</v>
+        <v>3594858</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9678748882574728</v>
+        <v>0.9678748882574729</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9628429361603884</v>
+        <v>0.9626593630785447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9727621536196799</v>
+        <v>0.9722622521994556</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8385</v>
@@ -5700,19 +5700,19 @@
         <v>6974420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6946972</v>
+        <v>6947411</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6998272</v>
+        <v>6999917</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9715434086514571</v>
+        <v>0.9715434086514569</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9677199412504967</v>
+        <v>0.9677811479576973</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.974866135127083</v>
+        <v>0.9750952275715412</v>
       </c>
     </row>
     <row r="18">
